--- a/tables/results_classification_all_period_time_auc.xlsx
+++ b/tables/results_classification_all_period_time_auc.xlsx
@@ -1473,19 +1473,19 @@
         <v>35</v>
       </c>
       <c r="F20">
-        <v>0.6977982627703636</v>
+        <v>0.6978529107225034</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20">
-        <v>0.6798780487804879</v>
+        <v>0.7591463414634146</v>
       </c>
       <c r="J20">
-        <v>0.6504716981132076</v>
+        <v>0.5712264150943396</v>
       </c>
       <c r="K20">
         <v>34244</v>
@@ -1523,19 +1523,19 @@
         <v>35</v>
       </c>
       <c r="F21">
-        <v>0.6978529107225034</v>
+        <v>0.6990695467096181</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I21">
-        <v>0.7591463414634146</v>
+        <v>0.7042682926829268</v>
       </c>
       <c r="J21">
-        <v>0.5712264150943396</v>
+        <v>0.6396226415094339</v>
       </c>
       <c r="K21">
         <v>34244</v>
@@ -1573,7 +1573,7 @@
         <v>35</v>
       </c>
       <c r="F22">
-        <v>0.6991356994937875</v>
+        <v>0.7004271168890934</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -1582,10 +1582,10 @@
         <v>39</v>
       </c>
       <c r="I22">
-        <v>0.7103658536585366</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="J22">
-        <v>0.6188679245283019</v>
+        <v>0.6273584905660378</v>
       </c>
       <c r="K22">
         <v>34244</v>
@@ -1608,40 +1608,40 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23">
-        <v>0.7049082489645651</v>
+        <v>0.7047768535350754</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I23">
-        <v>0.5640243902439024</v>
+        <v>0.6483950617283951</v>
       </c>
       <c r="J23">
-        <v>0.7933962264150943</v>
+        <v>0.6441249380267724</v>
       </c>
       <c r="K23">
-        <v>34244</v>
+        <v>42934</v>
       </c>
       <c r="L23">
-        <v>2448</v>
+        <v>12110</v>
       </c>
       <c r="M23" t="s">
         <v>33</v>
@@ -1658,40 +1658,40 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24">
-        <v>0.705036914620785</v>
+        <v>0.7049082489645651</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24">
-        <v>0.6459259259259259</v>
+        <v>0.5640243902439024</v>
       </c>
       <c r="J24">
-        <v>0.6470996529499257</v>
+        <v>0.7933962264150943</v>
       </c>
       <c r="K24">
-        <v>42934</v>
+        <v>34244</v>
       </c>
       <c r="L24">
-        <v>12110</v>
+        <v>2448</v>
       </c>
       <c r="M24" t="s">
         <v>33</v>
@@ -1723,19 +1723,19 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.7113190524659943</v>
+        <v>0.7116290367354492</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25">
-        <v>0.6051401869158879</v>
+        <v>0.5677570093457944</v>
       </c>
       <c r="J25">
-        <v>0.692079207920792</v>
+        <v>0.7425742574257426</v>
       </c>
       <c r="K25">
         <v>34244</v>
@@ -1773,19 +1773,19 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.7116290367354492</v>
+        <v>0.7118719348570371</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I26">
-        <v>0.5677570093457944</v>
+        <v>0.8177570093457944</v>
       </c>
       <c r="J26">
-        <v>0.7425742574257426</v>
+        <v>0.4826732673267327</v>
       </c>
       <c r="K26">
         <v>34244</v>
@@ -2023,7 +2023,7 @@
         <v>35</v>
       </c>
       <c r="F31">
-        <v>0.7167353908993661</v>
+        <v>0.7178825094541544</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -2032,10 +2032,10 @@
         <v>39</v>
       </c>
       <c r="I31">
-        <v>0.7448609431680774</v>
+        <v>0.6680773881499396</v>
       </c>
       <c r="J31">
-        <v>0.5929287199848743</v>
+        <v>0.6705426356589147</v>
       </c>
       <c r="K31">
         <v>42812</v>
@@ -2073,7 +2073,7 @@
         <v>35</v>
       </c>
       <c r="F32">
-        <v>0.7176325096256222</v>
+        <v>0.7185768962664177</v>
       </c>
       <c r="G32" t="s">
         <v>34</v>
@@ -2082,10 +2082,10 @@
         <v>39</v>
       </c>
       <c r="I32">
-        <v>0.7327690447400241</v>
+        <v>0.6257557436517533</v>
       </c>
       <c r="J32">
-        <v>0.6080544526375496</v>
+        <v>0.7164870485914161</v>
       </c>
       <c r="K32">
         <v>42812</v>
@@ -2208,34 +2208,34 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35">
-        <v>0.7234123331799355</v>
+        <v>0.7236420838345518</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I35">
-        <v>0.6890243902439024</v>
+        <v>0.5981308411214953</v>
       </c>
       <c r="J35">
-        <v>0.6806603773584906</v>
+        <v>0.7356435643564356</v>
       </c>
       <c r="K35">
         <v>34244</v>
@@ -2258,34 +2258,34 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36">
-        <v>0.7236420838345518</v>
+        <v>0.724557063966866</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I36">
-        <v>0.5981308411214953</v>
+        <v>0.6951219512195121</v>
       </c>
       <c r="J36">
-        <v>0.7356435643564356</v>
+        <v>0.6740566037735849</v>
       </c>
       <c r="K36">
         <v>34244</v>
@@ -2323,7 +2323,7 @@
         <v>35</v>
       </c>
       <c r="F37">
-        <v>0.7335222043258167</v>
+        <v>0.7344095144960883</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
@@ -2332,10 +2332,10 @@
         <v>39</v>
       </c>
       <c r="I37">
-        <v>0.7225609756097561</v>
+        <v>0.6036585365853658</v>
       </c>
       <c r="J37">
-        <v>0.6476415094339623</v>
+        <v>0.7825471698113208</v>
       </c>
       <c r="K37">
         <v>34244</v>
@@ -2373,7 +2373,7 @@
         <v>35</v>
       </c>
       <c r="F38">
-        <v>0.7361499294810725</v>
+        <v>0.7377250884372963</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
@@ -2382,10 +2382,10 @@
         <v>39</v>
       </c>
       <c r="I38">
-        <v>0.7237001209189843</v>
+        <v>0.6372430471584039</v>
       </c>
       <c r="J38">
-        <v>0.644167139345812</v>
+        <v>0.7294384571752695</v>
       </c>
       <c r="K38">
         <v>42812</v>
@@ -2423,7 +2423,7 @@
         <v>35</v>
       </c>
       <c r="F39">
-        <v>0.7449623377030148</v>
+        <v>0.7457857253412947</v>
       </c>
       <c r="G39" t="s">
         <v>34</v>
@@ -2432,10 +2432,10 @@
         <v>39</v>
       </c>
       <c r="I39">
-        <v>0.6251511487303507</v>
+        <v>0.6457073760580411</v>
       </c>
       <c r="J39">
-        <v>0.748062015503876</v>
+        <v>0.7300056721497448</v>
       </c>
       <c r="K39">
         <v>42812</v>
@@ -2473,7 +2473,7 @@
         <v>36</v>
       </c>
       <c r="F40">
-        <v>0.7488998818683168</v>
+        <v>0.750176928208989</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -2482,7 +2482,7 @@
         <v>39</v>
       </c>
       <c r="I40">
-        <v>0.6237037037037036</v>
+        <v>0.625679012345679</v>
       </c>
       <c r="J40">
         <v>0.7434804164600892</v>
@@ -2523,7 +2523,7 @@
         <v>36</v>
       </c>
       <c r="F41">
-        <v>0.7573100768020729</v>
+        <v>0.7596777551586934</v>
       </c>
       <c r="G41" t="s">
         <v>33</v>
@@ -2532,10 +2532,10 @@
         <v>39</v>
       </c>
       <c r="I41">
-        <v>0.6612149532710281</v>
+        <v>0.7710280373831776</v>
       </c>
       <c r="J41">
-        <v>0.7222772277227723</v>
+        <v>0.6232673267326733</v>
       </c>
       <c r="K41">
         <v>34244</v>
@@ -2723,7 +2723,7 @@
         <v>36</v>
       </c>
       <c r="F45">
-        <v>0.7960396873488924</v>
+        <v>0.7959820048109588</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -2732,10 +2732,10 @@
         <v>39</v>
       </c>
       <c r="I45">
-        <v>0.7397530864197531</v>
+        <v>0.7160493827160493</v>
       </c>
       <c r="J45">
-        <v>0.7135349529003471</v>
+        <v>0.7356470004957858</v>
       </c>
       <c r="K45">
         <v>42934</v>
@@ -2773,7 +2773,7 @@
         <v>36</v>
       </c>
       <c r="F46">
-        <v>0.80306861293606</v>
+        <v>0.8030466364393447</v>
       </c>
       <c r="G46" t="s">
         <v>33</v>
@@ -2782,10 +2782,10 @@
         <v>39</v>
       </c>
       <c r="I46">
-        <v>0.764018691588785</v>
+        <v>0.7242990654205608</v>
       </c>
       <c r="J46">
-        <v>0.7113861386138614</v>
+        <v>0.7594059405940594</v>
       </c>
       <c r="K46">
         <v>34244</v>
@@ -2873,7 +2873,7 @@
         <v>36</v>
       </c>
       <c r="F48">
-        <v>0.820061526408246</v>
+        <v>0.8206997557795773</v>
       </c>
       <c r="G48" t="s">
         <v>34</v>
@@ -2882,10 +2882,10 @@
         <v>39</v>
       </c>
       <c r="I48">
-        <v>0.7204938271604938</v>
+        <v>0.7664197530864197</v>
       </c>
       <c r="J48">
-        <v>0.7614278631631135</v>
+        <v>0.7190877540902331</v>
       </c>
       <c r="K48">
         <v>42934</v>
@@ -2923,7 +2923,7 @@
         <v>36</v>
       </c>
       <c r="F49">
-        <v>0.8295352549273619</v>
+        <v>0.8300973905801795</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
@@ -2932,10 +2932,10 @@
         <v>39</v>
       </c>
       <c r="I49">
-        <v>0.7570093457943925</v>
+        <v>0.7663551401869159</v>
       </c>
       <c r="J49">
-        <v>0.7569306930693069</v>
+        <v>0.746039603960396</v>
       </c>
       <c r="K49">
         <v>34244</v>
